--- a/biology/Botanique/Monodora/Monodora.xlsx
+++ b/biology/Botanique/Monodora/Monodora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monodora est un genre de plantes de la famille des Annonaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 septembre 2017) :
 Monodora angolensis Welw.
 Monodora carolinae Couvreur
 Monodora crispata Engl.
@@ -528,14 +542,14 @@
 Monodora tenuifolia Benth.
 Monodora undulata (P. Beauv.) Couvreur
 Monodora zenkeri Engl.
-Selon GRIN            (8 septembre 2017)[3] :
+Selon GRIN            (8 septembre 2017) :
 Monodora crispata Engl.
 Monodora myristica (Gaertn.) Dunal
 Monodora tenuifolia Benth.
 Monodora undulata (P. Beauv.) Couvreur
-Selon ITIS      (8 septembre 2017)[4] :
+Selon ITIS      (8 septembre 2017) :
 Monodora myristica (Gaertn.) Dunal
-Selon NCBI  (8 septembre 2017)[5] :
+Selon NCBI  (8 septembre 2017) :
 Monodora angolensis
 Monodora brevipes
 Monodora carolinae
@@ -551,7 +565,7 @@
 Monodora myristica
 Monodora stenopetala
 Monodora tenuifolia
-Selon The Plant List            (8 septembre 2017)[6] :
+Selon The Plant List            (8 septembre 2017) :
 Monodora angolensis Welw.
 Monodora brevipes Benth.
 Monodora crispata Engl. &amp; Diels
@@ -564,7 +578,7 @@
 Monodora tenuifolia Benth.
 Monodora undulata (P.Beauv.) Couvreur
 Monodora unwinii Hutch. &amp; Dalziel
-Selon Tropicos                                           (8 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Monodora angolensis Welw.
 Monodora borealis Scott-Elliot
 Monodora brevipes Benth.
